--- a/data/common.xlsx
+++ b/data/common.xlsx
@@ -66,21 +66,13 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -95,17 +87,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,31 +108,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -157,22 +126,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -184,6 +138,52 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,181 +200,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +416,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,21 +437,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -462,15 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,145 +476,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="14" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="22" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">

--- a/data/common.xlsx
+++ b/data/common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11920" windowWidth="16380"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11920" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,6 +56,22 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -64,8 +80,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,22 +111,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -104,15 +136,22 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,47 +173,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,7 +200,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,43 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,61 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,55 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +425,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,11 +460,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,32 +507,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -516,142 +516,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="30" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="6" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="18" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="28" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
@@ -661,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -682,19 +682,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1062,253 +1053,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="8.15384615384615"/>
-    <col customWidth="1" max="2" min="2" style="15" width="32.1538461538462"/>
-    <col customWidth="1" max="3" min="3" style="15" width="18.3846153846154"/>
-    <col customWidth="1" max="4" min="4" style="15" width="76.6153846153846"/>
-    <col customWidth="1" max="5" min="5" style="15" width="8.30769230769231"/>
-    <col customWidth="1" max="7" min="6" style="15" width="14.3076923076923"/>
-    <col customWidth="1" max="8" min="8" style="15" width="6.61538461538461"/>
-    <col customWidth="1" max="16384" min="9" style="15" width="9"/>
+    <col customWidth="1" max="1" min="1" style="12" width="8.15384615384615"/>
+    <col customWidth="1" max="2" min="2" style="12" width="32.1538461538462"/>
+    <col customWidth="1" max="3" min="3" style="12" width="18.3846153846154"/>
+    <col customWidth="1" max="4" min="4" style="12" width="76.6153846153846"/>
+    <col customWidth="1" max="5" min="5" style="12" width="8.30769230769231"/>
+    <col customWidth="1" max="7" min="6" style="12" width="14.3076923076923"/>
+    <col customWidth="1" max="8" min="8" style="12" width="6.61538461538461"/>
+    <col customWidth="1" max="16384" min="9" style="12" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>url_path</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>使用不存在的手机号进行注册</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${not_existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>code: "10001",</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>code: "10001",</t>
         </is>
       </c>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>使用已存在的手机号进行注册</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>code: "20110",</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>code: "20110",</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>使用未发行的手机号进行注册</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": 28888888888, "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>不使用手机号进行注册</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": null, "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>使用超过18位数字进行注册</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "1888888888888888888", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1344,242 +1335,242 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>url_path</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>使用正确的账号密码登录</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": 13798288888, "pwd": 123456}</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>code: "10001",</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>code: "10001",</t>
         </is>
       </c>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>使用错误的密码登录</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${existed_tel}", "pwd": 759428375984237}</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>code: "20111",</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>code: "20111",</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>使用正确的账号密码为空登录</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": ${existed_tel}, "pwd": null}</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>使用空账号填写已存在密码登录</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": null, "pwd": 123456}</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>使用不存在的账号登录</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${not_existed_tel}", "pwd": 123456}</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>code: "20111",</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>code: "20111",</t>
         </is>
       </c>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1600,12 +1591,12 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="8.15384615384615"/>
+    <col customWidth="1" max="1" min="1" style="8" width="8.15384615384615"/>
     <col customWidth="1" max="2" min="2" width="32.1538461538462"/>
     <col customWidth="1" max="3" min="3" width="18.3846153846154"/>
     <col customWidth="1" max="4" min="4" width="76.6153846153846"/>
@@ -1617,496 +1608,606 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>url_path</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="13" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>正常登陆</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "pwd": "${investors_user_pwd}"}</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="n">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="H2" s="10" t="n"/>
-      <c r="I2" s="14" t="n"/>
+      <c r="G2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 600}</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="n">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="14" t="n"/>
+      <c r="G3" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I3" s="11" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 600.1}</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="14" t="n"/>
+      <c r="G4" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 600.22}</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="n">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="14" t="n"/>
+      <c r="G5" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 500000}</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="n">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="14" t="n"/>
+      <c r="G6" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "", "amount": 600}</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>20103</v>
       </c>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="14" t="n"/>
+      <c r="G7" s="9" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="n"/>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>手机号-不足11位</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "1379828888", "amount": 600}</t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="n">
         <v>20109</v>
       </c>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="14" t="n"/>
+      <c r="G8" s="9" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>手机号-超过11位</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "137982888888", "amount": 600}</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="n">
         <v>20109</v>
       </c>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="14" t="n"/>
+      <c r="G9" s="9" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="n"/>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>手机号-不存在</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${not_existed_tel}", "amount": 600}</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="n">
         <v>20104</v>
       </c>
-      <c r="G10" s="12" t="n"/>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="14" t="n"/>
+      <c r="G10" s="9" t="n">
+        <v>20104</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>充值金额位0</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>充值金额为0</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D11" s="10" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 0}</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="n">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="G11" s="12" t="n"/>
-      <c r="H11" s="10" t="n"/>
-      <c r="I11" s="14" t="n"/>
+      <c r="G11" s="9" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": -600}</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="n">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="G12" s="12" t="n"/>
-      <c r="H12" s="10" t="n"/>
-      <c r="I12" s="14" t="n"/>
+      <c r="G12" s="9" t="n">
+        <v>20117</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="n"/>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": null}</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="n">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
         <v>20115</v>
       </c>
-      <c r="G13" s="12" t="n"/>
-      <c r="H13" s="10" t="n"/>
-      <c r="I13" s="14" t="n"/>
+      <c r="G13" s="9" t="n">
+        <v>20115</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>充值金额-三位小数</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D14" s="12" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 600.222}</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="n">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>20116</v>
       </c>
-      <c r="G14" s="12" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="14" t="n"/>
+      <c r="G14" s="9" t="n">
+        <v>20116</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": 500001}</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="n">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n">
         <v>20117</v>
       </c>
-      <c r="G15" s="12" t="n"/>
-      <c r="H15" s="10" t="n"/>
-      <c r="I15" s="14" t="n"/>
+      <c r="G15" s="9" t="n">
+        <v>20117</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="n"/>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D16" s="12" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "${investors_user_tel}", "amount": "50万"}</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="12" t="n">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="9" t="n">
         <v>20118</v>
       </c>
-      <c r="G16" s="12" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="14" t="n"/>
+      <c r="G16" s="9" t="n">
+        <v>20118</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
@@ -2122,8 +2223,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="114.259615384615" defaultRowHeight="16.8"/>
@@ -2131,7 +2232,7 @@
     <col customWidth="1" max="1" min="1" style="4" width="8.15384615384615"/>
     <col customWidth="1" max="2" min="2" style="5" width="22.0769230769231"/>
     <col customWidth="1" max="3" min="3" style="5" width="16.0769230769231"/>
-    <col customWidth="1" max="4" min="4" style="5" width="186.615384615385"/>
+    <col customWidth="1" max="4" min="4" style="5" width="88.29807692307691"/>
     <col customWidth="1" max="5" min="5" style="4" width="8.30769230769231"/>
     <col customWidth="1" max="6" min="6" style="4" width="9.30769230769231"/>
     <col customWidth="1" max="7" min="7" style="5" width="7.23076923076923"/>
@@ -2140,504 +2241,622 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="17" r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>url_path</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="17" r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>正常登陆</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone": "${manager_user_tel}", "pwd": "${manager_user_pwd}"}</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="n">
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="3">
-      <c r="A3" s="7" t="n">
+      <c r="G2" s="6" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="3">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>加标</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="4">
-      <c r="A4" s="7" t="n">
+      <c r="G3" s="6" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="4">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>借款人id为空</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>{"memberId": null, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="5">
-      <c r="A5" s="7" t="n">
+      <c r="G4" s="6" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="5">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>标题为空</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": null, "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": null, "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="6">
-      <c r="A6" s="7" t="n">
+      <c r="G5" s="6" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="6">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>借款金额为空</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": null,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": null,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="7">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>年利率为空</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":null,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":null,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="G7" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="8">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>借款期限为空</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":null,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":null,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="G8" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="9">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>借款期限类型为空</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":null,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":null,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="G9" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="10">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>还款方式为空</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":null,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":null,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G10" s="8" t="n"/>
-      <c r="H10" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="G10" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="11">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>竞标天数为空</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":null}</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":null}</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n">
         <v>20103</v>
       </c>
-      <c r="G11" s="8" t="n"/>
-      <c r="H11" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="G11" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="12">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>借款人id为负数</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "-${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": -${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n">
         <v>20104</v>
       </c>
-      <c r="G12" s="8" t="n"/>
-      <c r="H12" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="G12" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="13">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>借款人id为小数</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "1.2", "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": 1.2, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n">
         <v>20109</v>
       </c>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="G13" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="14">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>借款金额为负数</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": -20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": -20000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>20106</v>
       </c>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="G14" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="15">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>借款金额为小数</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 20000.1,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000.1,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n">
         <v>20106</v>
       </c>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="G15" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="16">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>借款金额小于1000</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 999,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 999,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n">
         <v>20106</v>
       </c>
-      <c r="G16" s="8" t="n"/>
-      <c r="H16" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="G16" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34" r="17">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>借款金额等于于1000</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>/member/add</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>{"memberId": "${borrower_user_id}", "title": "试试人品行不行，介个2W玩玩", "amount": 1000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 1000,"loanRate":12.0,"loanTerm":3,"loanDateTpye":0,"repaymemtWay":11,"biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="G17" s="8" t="n"/>
-      <c r="H17" s="7" t="n"/>
+      <c r="G17" s="7" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2670,42 +2889,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>url_path</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2717,164 +2936,164 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>使用不存在的手机号进行注册</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${not_existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>code: "10001",</t>
         </is>
       </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>使用已存在的手机号进行注册</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "${existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>code: "20110",</t>
         </is>
       </c>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="10" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>使用未发行的手机号进行注册</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": 28888888888, "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="10" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>不使用手机号进行注册</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": null, "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>code: "20103",</t>
         </is>
       </c>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="10" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>使用超过18位数字进行注册</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>{"mobilephone": "1888888888888888888", "pwd": 123456, "regname": "刀刀"}</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>code: "20109",</t>
         </is>
       </c>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/common.xlsx
+++ b/data/common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11920" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13020" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,6 +43,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -57,6 +64,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -65,22 +80,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -88,15 +103,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,21 +128,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,6 +143,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -148,32 +157,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -184,6 +168,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,7 +200,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,162 +374,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -404,14 +404,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,17 +421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,15 +447,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -476,16 +457,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,163 +486,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="18" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="26" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="17" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -670,9 +657,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1567,8 +1551,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1581,7 +1565,7 @@
     <col customWidth="1" max="6" min="6" style="1" width="9.30769230769231"/>
     <col customWidth="1" max="7" min="7" style="1" width="7.23076923076923"/>
     <col customWidth="1" max="8" min="8" style="1" width="6.61538461538461"/>
-    <col customWidth="1" max="9" min="9" style="1" width="10.2307692307692"/>
+    <col customWidth="1" max="9" min="9" style="1" width="66.3461538461538"/>
     <col customWidth="1" max="16384" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -1626,7 +1610,7 @@
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
@@ -1667,6 +1651,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="3">
       <c r="A3" s="2" t="n">
@@ -1703,6 +1688,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>SELECT LeaveAmount FROM future.member WHERE MobilePhone=%s;</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="4">
       <c r="A4" s="2" t="n">
@@ -1739,6 +1729,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>SELECT LeaveAmount FROM future.member WHERE MobilePhone=%s;</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="5">
       <c r="A5" s="2" t="n">
@@ -1775,6 +1770,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>SELECT LeaveAmount FROM future.member WHERE MobilePhone=%s;</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="6">
       <c r="A6" s="2" t="n">
@@ -1811,6 +1811,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>SELECT LeaveAmount FROM future.member WHERE MobilePhone=%s;</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="7">
       <c r="A7" s="2" t="n">
@@ -1847,6 +1852,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I7" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="8">
       <c r="A8" s="2" t="n">
@@ -1883,6 +1889,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I8" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="9">
       <c r="A9" s="2" t="n">
@@ -1919,6 +1926,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I9" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="10">
       <c r="A10" s="2" t="n">
@@ -1955,6 +1963,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I10" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="11">
       <c r="A11" s="2" t="n">
@@ -1991,6 +2000,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I11" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="12">
       <c r="A12" s="2" t="n">
@@ -2027,6 +2037,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I12" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="13">
       <c r="A13" s="2" t="n">
@@ -2063,6 +2074,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I13" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="14">
       <c r="A14" s="2" t="n">
@@ -2099,6 +2111,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I14" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="15">
       <c r="A15" s="2" t="n">
@@ -2135,6 +2148,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I15" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="16">
       <c r="A16" s="2" t="n">
@@ -2171,6 +2185,7 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="I16" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>

--- a/data/common.xlsx
+++ b/data/common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13020" windowWidth="28800"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="19020"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -64,16 +64,24 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,6 +95,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -95,9 +142,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,8 +165,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -127,61 +180,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +200,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,169 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,11 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,6 +451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -452,21 +473,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,159 +492,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="18" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="12" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="13" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
@@ -1008,10 +1008,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.15384615384615"/>
     <col customWidth="1" max="2" min="2" style="1" width="32.1538461538462"/>
@@ -1279,11 +1279,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0" zoomScale="160" zoomScaleNormal="160">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.15384615384615"/>
     <col customWidth="1" max="2" min="2" style="1" width="34.5384615384615"/>
@@ -1551,11 +1551,11 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.15384615384615"/>
     <col customWidth="1" max="2" min="2" style="1" width="20.7692307692308"/>
@@ -2201,11 +2201,11 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="114.259615384615" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="114.259615384615" defaultRowHeight="16.8" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="7.30769230769231"/>
     <col customWidth="1" max="2" min="2" style="1" width="20"/>
@@ -2847,23 +2847,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.15384615384615"/>
-    <col customWidth="1" max="2" min="2" style="1" width="32.1538461538462"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.3846153846154"/>
-    <col customWidth="1" max="4" min="4" style="1" width="76.6153846153846"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.30769230769231"/>
-    <col customWidth="1" max="6" min="6" style="1" width="14.3076923076923"/>
-    <col customWidth="1" max="7" min="7" style="1" width="7.23076923076923"/>
-    <col customWidth="1" max="8" min="8" style="1" width="6.61538461538461"/>
-    <col customWidth="1" max="9" min="9" style="1" width="10.2307692307692"/>
+    <col customWidth="1" max="1" min="1" style="1" width="7.30769230769231"/>
+    <col customWidth="1" max="2" min="2" style="1" width="27.5"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="76.5384615384615"/>
+    <col customWidth="1" max="5" min="5" style="1" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="8.46153846153846"/>
+    <col customWidth="1" max="7" min="7" style="1" width="6.34615384615385"/>
+    <col customWidth="1" max="8" min="8" style="1" width="5.76923076923077"/>
+    <col customWidth="1" max="9" min="9" style="1" width="64.80769230769231"/>
     <col customWidth="1" max="16384" min="10" style="1" width="8.88461538461539"/>
   </cols>
   <sheetData>
@@ -2920,17 +2920,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>使用不存在的手机号进行注册</t>
+          <t>管理员正常登陆</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/member/login</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${not_existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
+          <t>{"mobilephone": "${manager_user_tel}", "pwd": "${manager_user_pwd}"}</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -2938,31 +2938,38 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>code: "10001",</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="3">
+      <c r="F2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="68" r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>使用已存在的手机号进行注册</t>
+          <t>管理员加标</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/loan/add</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
+          <t>{"memberId": ${borrower_user_id}, "title": "试试人品行不行，介个2W玩玩", "amount": 20000,"loanRate":12.0,"loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -2970,13 +2977,24 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>code: "20110",</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="F3" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>SELECT Id FROM future.loan WHERE MemberID=${borrower_user_id} ORDER BY CreateTime DESC LIMIT 0,1;</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="4">
       <c r="A4" s="2" t="n">
@@ -2984,17 +3002,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>使用未发行的手机号进行注册</t>
+          <t>管理员审核</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/loan/audit</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": 28888888888, "pwd": 123456, "regname": "刀刀"}</t>
+          <t>{"id":${loan_id},"status":4}</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -3002,13 +3020,12 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>code: "20109",</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>10001</v>
       </c>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="5">
       <c r="A5" s="2" t="n">
@@ -3016,49 +3033,44 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>不使用手机号进行注册</t>
+          <t>投资人正常登陆</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/member/login</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": null, "pwd": 123456, "regname": "刀刀"}</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>code: "20103",</t>
-        </is>
+          <t>{"mobilephone": "${invest_user_tel}", "pwd": "${invest_user_pwd}"}</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n">
+        <v>10001</v>
       </c>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="6">
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>使用超过18位数字进行注册</t>
+          <t>投资人正常投资</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/member/bidLoan</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": "1888888888888888888", "pwd": 123456, "regname": "刀刀"}</t>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -3066,13 +3078,446 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>code: "20109",</t>
-        </is>
+      <c r="F6" s="2" t="n">
+        <v>10001</v>
       </c>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="17" r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>投资人id为空</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",null,"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="17" r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>投资人密码为空</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":"","loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>标id为空</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":null,"amount":500}</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>投资金额为空</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":null}</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>投资人id为负数</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",-${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>11004</v>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="17" r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>投资人id为0</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",0,"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11004</v>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>标id为负数</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":-${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>11005</v>
+      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>标id为0</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":0,"amount":500}</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>11005</v>
+      </c>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="17" r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>投资人密码长度小于6</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":12345,"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>11006</v>
+      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>投资人密码长度大于18</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":1234567891234567891,"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>11006</v>
+      </c>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>投资金额为负数</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":-500}</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>投资金额为不能被100整除的数</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":5001}</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>投资人id不存在</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${not_existed_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>11008</v>
+      </c>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="34" r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>标id不存在</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${not_existed_loan_id},"amount":500}</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>11009</v>
+      </c>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/common.xlsx
+++ b/data/common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="19020"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,22 +56,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -87,9 +71,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,7 +88,60 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +157,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,45 +166,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +180,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,31 +200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +278,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,31 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +416,63 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,209 +492,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="31" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="13" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="11" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
@@ -2849,8 +2849,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="0"/>
@@ -3023,8 +3023,16 @@
       <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I4" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="5">
@@ -3043,15 +3051,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${invest_user_tel}", "pwd": "${invest_user_pwd}"}</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
+          <t>{"mobilephone": "${investors_user_tel}", "pwd": "${investors_user_pwd}"}</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
       <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="6">
@@ -3070,7 +3090,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -3081,8 +3101,16 @@
       <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I6" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="7">
@@ -3101,7 +3129,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",null,"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":null,"password":${investors_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -3112,8 +3140,16 @@
       <c r="F7" s="2" t="n">
         <v>11003</v>
       </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="8">
@@ -3132,7 +3168,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":"","loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":"","loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -3143,8 +3179,16 @@
       <c r="F8" s="2" t="n">
         <v>11003</v>
       </c>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="9">
@@ -3163,7 +3207,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":null,"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":null,"amount":500}</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -3174,8 +3218,16 @@
       <c r="F9" s="2" t="n">
         <v>11003</v>
       </c>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="10">
@@ -3194,7 +3246,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":null}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":null}</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -3205,8 +3257,16 @@
       <c r="F10" s="2" t="n">
         <v>11003</v>
       </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="11">
@@ -3225,7 +3285,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",-${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":-${investors_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -3236,8 +3296,16 @@
       <c r="F11" s="2" t="n">
         <v>11004</v>
       </c>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11004","data":null,"msg":"参数错误，memberId必须是大于0的正整数"}</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="12">
@@ -3256,7 +3324,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",0,"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":0,"password":${investors_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3267,8 +3335,16 @@
       <c r="F12" s="2" t="n">
         <v>11004</v>
       </c>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11004","data":null,"msg":"参数错误，memberId必须是大于0的正整数"}</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="13">
@@ -3287,7 +3363,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":-${loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":-${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -3298,8 +3374,16 @@
       <c r="F13" s="2" t="n">
         <v>11005</v>
       </c>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="14">
@@ -3318,7 +3402,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":0,"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":0,"amount":500}</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3329,8 +3413,16 @@
       <c r="F14" s="2" t="n">
         <v>11005</v>
       </c>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="15">
@@ -3349,7 +3441,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":12345,"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":12345,"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -3360,8 +3452,16 @@
       <c r="F15" s="2" t="n">
         <v>11006</v>
       </c>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="16">
@@ -3380,7 +3480,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":1234567891234567891,"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":1234567891234567891,"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -3391,8 +3491,16 @@
       <c r="F16" s="2" t="n">
         <v>11006</v>
       </c>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="17">
@@ -3411,7 +3519,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":-500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":-500}</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -3422,8 +3530,16 @@
       <c r="F17" s="2" t="n">
         <v>11007</v>
       </c>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="18">
@@ -3442,7 +3558,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":5001}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":5001}</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -3453,8 +3569,16 @@
       <c r="F18" s="2" t="n">
         <v>11007</v>
       </c>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="19">
@@ -3473,7 +3597,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${not_existed_user_id},"password":${invest_user_pwd},"loanId":${loan_id},"amount":500}</t>
+          <t>{"memberId":${not_existed_user_id},"password":${investors_user_pwd},"loanId":${loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -3484,8 +3608,16 @@
       <c r="F19" s="2" t="n">
         <v>11008</v>
       </c>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11008","data":null,"msg":"不存在该用户"}</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="34" r="20">
@@ -3504,7 +3636,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>{"memberId",${invest_user_id},"password":${invest_user_pwd},"loanId":${not_existed_loan_id},"amount":500}</t>
+          <t>{"memberId":${investors_user_id},"password":${investors_user_pwd},"loanId":${not_existed_loan_id},"amount":500}</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -3515,8 +3647,16 @@
       <c r="F20" s="2" t="n">
         <v>11009</v>
       </c>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="n"/>
     </row>
   </sheetData>
